--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BBE8D3-9EC7-4726-883A-C8BFBDEDDEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1E18D-72EA-4E9C-8C87-F447AEBEA2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2000-20nodes" sheetId="10" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1E18D-72EA-4E9C-8C87-F447AEBEA2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7ADD1D-319E-442A-8ED3-6E6075748ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -650,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7ADD1D-319E-442A-8ED3-6E6075748ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE9E04-078E-49BA-8F44-8E00C6AD9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2000-20nodes" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>PubID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Latin America</t>
   </si>
   <si>
-    <t>duplicate removed</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -140,13 +137,46 @@
   </si>
   <si>
     <t>LMM</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Jour_country</t>
+  </si>
+  <si>
+    <t>Impact_Factor</t>
+  </si>
+  <si>
+    <t>Jour_continent</t>
+  </si>
+  <si>
+    <t>country_study</t>
+  </si>
+  <si>
+    <t>Neotropical</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Argentina </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +191,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,9 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +553,7 @@
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -535,16 +572,28 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -558,53 +607,62 @@
       <c r="F2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -618,133 +676,154 @@
       <c r="F5">
         <v>2003</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>2004</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>2005</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>2006</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>2006</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
       <c r="D11">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>2008</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -758,10 +837,13 @@
       <c r="F12">
         <v>2010</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -777,6 +859,9 @@
       </c>
       <c r="F13">
         <v>2011</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE9E04-078E-49BA-8F44-8E00C6AD9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63FCB13-8858-4D9B-8C13-8A15528A3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>PubID</t>
   </si>
@@ -167,36 +167,19 @@
   </si>
   <si>
     <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Argentina </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Georgia"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,10 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,25 +532,26 @@
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
@@ -837,8 +819,8 @@
       <c r="F12">
         <v>2010</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
+      <c r="G12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63FCB13-8858-4D9B-8C13-8A15528A3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2000-20nodes" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>PubID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Jour_country</t>
   </si>
   <si>
-    <t>Impact_Factor</t>
-  </si>
-  <si>
     <t>Jour_continent</t>
   </si>
   <si>
@@ -167,14 +164,61 @@
   </si>
   <si>
     <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>REVISTA DE BIOLOGIA TROPICAL</t>
+  </si>
+  <si>
+    <t>Acarid Phylogeny and Evolution: Adaptation in Mites and Ticks</t>
+  </si>
+  <si>
+    <t>BioScience</t>
+  </si>
+  <si>
+    <t>Caribbean Journal of Science </t>
+  </si>
+  <si>
+    <t>Experimental and Applied Acarology</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>HYDROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>AQUATIC CONSERVATION: MARINE AND FRESHWATER ECOSYSTEMS</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Polish Journal of Ecology</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>TROPICAL STREAM ECOLOGY</t>
+  </si>
+  <si>
+    <t>Biota Neotropica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -202,8 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,44 +578,44 @@
     <col min="4" max="4" width="6.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -592,8 +637,17 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -613,10 +667,19 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -636,10 +699,19 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -661,8 +733,17 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -682,10 +763,19 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -707,8 +797,17 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -728,10 +827,19 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -753,8 +861,17 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -774,10 +891,19 @@
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -797,10 +923,19 @@
         <v>2008</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -822,8 +957,17 @@
       <c r="G12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -844,6 +988,15 @@
       </c>
       <c r="G13" t="s">
         <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B7A4094-65D8-469F-A87C-8D46CB3DD8C7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>affiliation</t>
   </si>
   <si>
-    <t>ARC</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Calor, AR</t>
   </si>
   <si>
-    <t>DJ</t>
-  </si>
-  <si>
     <t>Goldschmidt, T</t>
   </si>
   <si>
@@ -203,6 +197,12 @@
   </si>
   <si>
     <t>Biota Neotropica</t>
+  </si>
+  <si>
+    <t>ADORC</t>
+  </si>
+  <si>
+    <t>DENJD</t>
   </si>
 </sst>
 </file>
@@ -266,8 +266,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,7 +559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,400 +607,400 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2001</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>2006</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
       <c r="D11">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>2008</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>2010</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
       </c>
       <c r="D13">
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>2011</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B7A4094-65D8-469F-A87C-8D46CB3DD8C7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209881E2-2FF8-4206-8EE9-23C391B509EE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>KMW</t>
   </si>
   <si>
-    <t>APC</t>
-  </si>
-  <si>
     <t>Mesa, LM</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>DENJD</t>
+  </si>
+  <si>
+    <t>ALAPCOV</t>
   </si>
 </sst>
 </file>
@@ -266,12 +266,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -642,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -671,10 +667,10 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -703,10 +699,10 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -738,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -767,13 +763,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -802,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -816,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -831,13 +827,13 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -866,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -880,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -895,13 +891,13 @@
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -912,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -927,13 +923,13 @@
         <v>2008</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -941,10 +937,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -962,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -976,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -994,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209881E2-2FF8-4206-8EE9-23C391B509EE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B4D840-4A5A-43E0-ADB6-9B56630F4FC4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Wantzen, KM</t>
   </si>
   <si>
-    <t>KMW</t>
-  </si>
-  <si>
     <t>Mesa, LM</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>ALAPCOV</t>
+  </si>
+  <si>
+    <t>KARLMWANT</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -667,10 +667,10 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -699,10 +699,10 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -763,13 +763,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -827,13 +827,13 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -862,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -891,13 +891,13 @@
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -908,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -923,13 +923,13 @@
         <v>2008</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -958,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -972,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -990,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B4D840-4A5A-43E0-ADB6-9B56630F4FC4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{28051C4D-675C-4B99-9A0D-5DC5B3AC4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB852FBE-BC64-4F93-B3AE-44FCE2383969}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2000-20nodes" sheetId="10" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Goldschmidt, T</t>
   </si>
   <si>
-    <t>TG</t>
-  </si>
-  <si>
     <t>Covich, AP</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Barrientos, Z</t>
   </si>
   <si>
-    <t>ZB</t>
-  </si>
-  <si>
     <t>Wantzen, KM</t>
   </si>
   <si>
@@ -203,6 +197,12 @@
   </si>
   <si>
     <t>KARLMWANT</t>
+  </si>
+  <si>
+    <t>ZAIDBAR</t>
+  </si>
+  <si>
+    <t>TOMGOLD</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,24 +603,24 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -652,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -667,10 +667,10 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -699,10 +699,10 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -763,13 +763,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -780,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -827,13 +827,13 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -862,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -873,10 +873,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -891,13 +891,13 @@
         <v>2006</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -908,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -923,13 +923,13 @@
         <v>2008</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -958,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -972,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -990,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>

--- a/data/data2000_2020.xlsx
+++ b/data/data2000_2020.xlsx
@@ -566,8 +566,8 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
